--- a/datas/testcase.xlsx
+++ b/datas/testcase.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZLD\PycharmProjects\Learn\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80404AE3-E386-47D7-947A-6F7AEBB0D16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7856B624-8D1B-4A62-9C82-5BFDAC93CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23970" yWindow="-1935" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22995" yWindow="-1320" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="3" r:id="rId1"/>
     <sheet name="loging" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="4" r:id="rId3"/>
     <sheet name="withdraw" sheetId="5" r:id="rId4"/>
+    <sheet name="add" sheetId="6" r:id="rId5"/>
+    <sheet name="audit" sheetId="7" r:id="rId6"/>
+    <sheet name="invest" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="166">
   <si>
     <t>登录成功</t>
   </si>
@@ -415,6 +418,268 @@
   </si>
   <si>
     <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目id为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目id不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/loan/audit/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"approved_or_not":True}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/loan/add/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加标成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加标失败-借款人为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加标失败-借款人id为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加标失败-标题为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加标失败-借款金额为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加标失败-年利率为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加标失败-借款期限为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加标失败-借款期限类型为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","title":"借钱实现财富自由","amount":"2000","loan_term":"6","loan_date_type":"1","bidding_days":"5"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","amount":"2000","lan_rate":"18.0","loan_term":"6","loan_date_type":"1","bidding_days":"3"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","title":"借钱实现财富自由","amount":"2000","loan_rate":"18.0","loan_term":"6","loan_date_type":"1","bidding_days":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"借钱实现财富自由","amount":"2000","loan_rate":"18.0","loan_term":"6","loan_date_type":"1","bidding_days":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","title":"借钱实现财富自由","loan_rate":"18.0","loan_term":"6","loan_date_type":"1","bidding_days":"4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","title":"借钱实现财富自由","amount":"2000","loan_rate":"18.0","loan_date_type":"1","bidding_days":"6"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","title":"借钱实现财富自由","amount":"2000","loan_rate":"18.0","loan_term":"6","bidding_days":"7"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","title":"借钱实现财富自由","amount":"2000","loan_rate":"18.0","loan_term":"6","loan_date_type":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"用户id为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"标题为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款金额为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"利率为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款期限为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款日期类型为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"竞标期限为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目不是待审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loan_id":#pass_loan_id#,"approved_or_not":False}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#}</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not":True}</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not":False}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#+100,"approved_or_not":True}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","status":2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","status":5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"approved_or_not为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"项目id为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"项目不存在"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"项目不在审核中状态"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/invest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少标id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少投资金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资金额不能被一百整除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"会员id为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"项目id为空”}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"金额为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"id":#id#,"amount":"2000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"id":#id#,"amount":"200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"id":#id#,"amount":"2007"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"投资金额必须大于100，并且可以被100整除”}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资金额超过用户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":#incest_member_id#,"id":#id#,"amount":"200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"余额不足"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1135,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6B78D2-D981-4CC5-A59F-E8976ED70525}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1348,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A684B77A-32C0-4927-A3B7-FB05A1794BBB}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1644,4 +1909,610 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E958CB59-73E6-4ECF-8D72-8DCBC50D10B0}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="6" max="6" width="123.75" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D36AD4-FBE5-4FB3-AE91-EACE0E33EF6F}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="54.375" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D03C954-95ED-416E-B0BF-6B149B2B6C4E}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/datas/testcase.xlsx
+++ b/datas/testcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZLD\PycharmProjects\Learn\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7856B624-8D1B-4A62-9C82-5BFDAC93CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1050DA38-38F2-4347-9282-D3886BD0D8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22995" yWindow="-1320" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="165">
   <si>
     <t>登录成功</t>
   </si>
@@ -639,47 +639,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":0,"msg":"OK}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"会员id为空"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"项目id为空”}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"金额为空"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"id":#id#,"amount":"2000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"id":#id#,"amount":"200"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"id":#id#,"amount":"2007"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"投资金额必须大于100，并且可以被100整除”}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投资金额超过用户余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"member_id":#incest_member_id#,"id":#id#,"amount":"200"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"余额不足"}</t>
+    <t>{"member_id":#member_id#,"amount":200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"OK"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"余额不足"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"amount":200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":2000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":2007}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":20000000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"投资金额必须大于100，并且可以被100整除"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2148,7 +2144,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2334,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D03C954-95ED-416E-B0BF-6B149B2B6C4E}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2389,10 +2385,10 @@
         <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2412,10 +2408,10 @@
         <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2435,10 +2431,10 @@
         <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2461,7 +2457,7 @@
         <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2481,10 +2477,10 @@
         <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2495,7 +2491,7 @@
         <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -2504,10 +2500,10 @@
         <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
